--- a/natmiOut/OldD2/LR-pairs_lrc2p/Sema4a-Plxnd1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Sema4a-Plxnd1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.3244294017864</v>
+        <v>11.66862</v>
       </c>
       <c r="H2">
-        <v>10.3244294017864</v>
+        <v>23.33724</v>
       </c>
       <c r="I2">
-        <v>0.1336883470326069</v>
+        <v>0.1418293637844402</v>
       </c>
       <c r="J2">
-        <v>0.1336883470326069</v>
+        <v>0.1026592641785845</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>163.867963021638</v>
+        <v>163.8679735</v>
       </c>
       <c r="N2">
-        <v>163.867963021638</v>
+        <v>327.735947</v>
       </c>
       <c r="O2">
-        <v>0.4403008222285246</v>
+        <v>0.4353980439170849</v>
       </c>
       <c r="P2">
-        <v>0.4403008222285246</v>
+        <v>0.3519187842322066</v>
       </c>
       <c r="Q2">
-        <v>1691.843215431446</v>
+        <v>1912.11311294157</v>
       </c>
       <c r="R2">
-        <v>1691.843215431446</v>
+        <v>7648.452451766279</v>
       </c>
       <c r="S2">
-        <v>0.05886308912082914</v>
+        <v>0.0617522275617499</v>
       </c>
       <c r="T2">
-        <v>0.05886308912082914</v>
+        <v>0.03612772343990039</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.3244294017864</v>
+        <v>11.66862</v>
       </c>
       <c r="H3">
-        <v>10.3244294017864</v>
+        <v>23.33724</v>
       </c>
       <c r="I3">
-        <v>0.1336883470326069</v>
+        <v>0.1418293637844402</v>
       </c>
       <c r="J3">
-        <v>0.1336883470326069</v>
+        <v>0.1026592641785845</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.0916688629988</v>
+        <v>16.807086</v>
       </c>
       <c r="N3">
-        <v>16.0916688629988</v>
+        <v>50.42125799999999</v>
       </c>
       <c r="O3">
-        <v>0.04323709711624325</v>
+        <v>0.04465651348490144</v>
       </c>
       <c r="P3">
-        <v>0.04323709711624325</v>
+        <v>0.05414171981207304</v>
       </c>
       <c r="Q3">
-        <v>166.1372991329555</v>
+        <v>196.11549984132</v>
       </c>
       <c r="R3">
-        <v>166.1372991329555</v>
+        <v>1176.69299904792</v>
       </c>
       <c r="S3">
-        <v>0.005780296043958853</v>
+        <v>0.006333604896394845</v>
       </c>
       <c r="T3">
-        <v>0.005780296043958853</v>
+        <v>0.005558149117270509</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.3244294017864</v>
+        <v>11.66862</v>
       </c>
       <c r="H4">
-        <v>10.3244294017864</v>
+        <v>23.33724</v>
       </c>
       <c r="I4">
-        <v>0.1336883470326069</v>
+        <v>0.1418293637844402</v>
       </c>
       <c r="J4">
-        <v>0.1336883470326069</v>
+        <v>0.1026592641785845</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.001144717452</v>
+        <v>31.35339366666667</v>
       </c>
       <c r="N4">
-        <v>30.001144717452</v>
+        <v>94.060181</v>
       </c>
       <c r="O4">
-        <v>0.08061080667211819</v>
+        <v>0.08330612737228353</v>
       </c>
       <c r="P4">
-        <v>0.08061080667211819</v>
+        <v>0.1010006526448602</v>
       </c>
       <c r="Q4">
-        <v>309.7447006081102</v>
+        <v>365.85083640674</v>
       </c>
       <c r="R4">
-        <v>309.7447006081102</v>
+        <v>2195.10501844044</v>
       </c>
       <c r="S4">
-        <v>0.01077672549696052</v>
+        <v>0.01181525504455651</v>
       </c>
       <c r="T4">
-        <v>0.01077672549696052</v>
+        <v>0.01036865268207815</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.3244294017864</v>
+        <v>11.66862</v>
       </c>
       <c r="H5">
-        <v>10.3244294017864</v>
+        <v>23.33724</v>
       </c>
       <c r="I5">
-        <v>0.1336883470326069</v>
+        <v>0.1418293637844402</v>
       </c>
       <c r="J5">
-        <v>0.1336883470326069</v>
+        <v>0.1026592641785845</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.8723698866048</v>
+        <v>35.54054833333333</v>
       </c>
       <c r="N5">
-        <v>34.8723698866048</v>
+        <v>106.621645</v>
       </c>
       <c r="O5">
-        <v>0.09369942025886943</v>
+        <v>0.09443141874256437</v>
       </c>
       <c r="P5">
-        <v>0.09369942025886943</v>
+        <v>0.1144889964762942</v>
       </c>
       <c r="Q5">
-        <v>360.0373209672333</v>
+        <v>414.7091530932999</v>
       </c>
       <c r="R5">
-        <v>360.0373209672333</v>
+        <v>2488.2549185598</v>
       </c>
       <c r="S5">
-        <v>0.01252652061232181</v>
+        <v>0.01339314804151997</v>
       </c>
       <c r="T5">
-        <v>0.01252652061232181</v>
+        <v>0.01175335613480091</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.3244294017864</v>
+        <v>11.66862</v>
       </c>
       <c r="H6">
-        <v>10.3244294017864</v>
+        <v>23.33724</v>
       </c>
       <c r="I6">
-        <v>0.1336883470326069</v>
+        <v>0.1418293637844402</v>
       </c>
       <c r="J6">
-        <v>0.1336883470326069</v>
+        <v>0.1026592641785845</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>93.6516634511801</v>
+        <v>94.85468300000001</v>
       </c>
       <c r="N6">
-        <v>93.6516634511801</v>
+        <v>284.564049</v>
       </c>
       <c r="O6">
-        <v>0.251634936202745</v>
+        <v>0.2520293779954212</v>
       </c>
       <c r="P6">
-        <v>0.251634936202745</v>
+        <v>0.3055613370365933</v>
       </c>
       <c r="Q6">
-        <v>966.8999876615686</v>
+        <v>1106.82325114746</v>
       </c>
       <c r="R6">
-        <v>966.8999876615686</v>
+        <v>6640.93950688476</v>
       </c>
       <c r="S6">
-        <v>0.03364065867660047</v>
+        <v>0.03574516633607878</v>
       </c>
       <c r="T6">
-        <v>0.03364065867660047</v>
+        <v>0.03136870202160113</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.3244294017864</v>
+        <v>11.66862</v>
       </c>
       <c r="H7">
-        <v>10.3244294017864</v>
+        <v>23.33724</v>
       </c>
       <c r="I7">
-        <v>0.1336883470326069</v>
+        <v>0.1418293637844402</v>
       </c>
       <c r="J7">
-        <v>0.1336883470326069</v>
+        <v>0.1026592641785845</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.687929125754</v>
+        <v>33.9399115</v>
       </c>
       <c r="N7">
-        <v>33.687929125754</v>
+        <v>67.879823</v>
       </c>
       <c r="O7">
-        <v>0.09051691752149957</v>
+        <v>0.0901785184877445</v>
       </c>
       <c r="P7">
-        <v>0.09051691752149957</v>
+        <v>0.07288850979797275</v>
       </c>
       <c r="Q7">
-        <v>347.808645951231</v>
+        <v>396.03193012713</v>
       </c>
       <c r="R7">
-        <v>347.808645951231</v>
+        <v>1584.12772050852</v>
       </c>
       <c r="S7">
-        <v>0.01210105708193609</v>
+        <v>0.01278996190414018</v>
       </c>
       <c r="T7">
-        <v>0.01210105708193609</v>
+        <v>0.007482680782933431</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.4613481481237</v>
+        <v>15.12099333333333</v>
       </c>
       <c r="H8">
-        <v>13.4613481481237</v>
+        <v>45.36298</v>
       </c>
       <c r="I8">
-        <v>0.1743074907792694</v>
+        <v>0.1837921591632454</v>
       </c>
       <c r="J8">
-        <v>0.1743074907792694</v>
+        <v>0.1995493103618014</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>163.867963021638</v>
+        <v>163.8679735</v>
       </c>
       <c r="N8">
-        <v>163.867963021638</v>
+        <v>327.735947</v>
       </c>
       <c r="O8">
-        <v>0.4403008222285246</v>
+        <v>0.4353980439170849</v>
       </c>
       <c r="P8">
-        <v>0.4403008222285246</v>
+        <v>0.3519187842322066</v>
       </c>
       <c r="Q8">
-        <v>2205.883700558129</v>
+        <v>2477.846534840343</v>
       </c>
       <c r="R8">
-        <v>2205.883700558129</v>
+        <v>14867.07920904206</v>
       </c>
       <c r="S8">
-        <v>0.07674773151070328</v>
+        <v>0.08002274658697456</v>
       </c>
       <c r="T8">
-        <v>0.07674773151070328</v>
+        <v>0.07022515069690043</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.4613481481237</v>
+        <v>15.12099333333333</v>
       </c>
       <c r="H9">
-        <v>13.4613481481237</v>
+        <v>45.36298</v>
       </c>
       <c r="I9">
-        <v>0.1743074907792694</v>
+        <v>0.1837921591632454</v>
       </c>
       <c r="J9">
-        <v>0.1743074907792694</v>
+        <v>0.1995493103618014</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.0916688629988</v>
+        <v>16.807086</v>
       </c>
       <c r="N9">
-        <v>16.0916688629988</v>
+        <v>50.42125799999999</v>
       </c>
       <c r="O9">
-        <v>0.04323709711624325</v>
+        <v>0.04465651348490144</v>
       </c>
       <c r="P9">
-        <v>0.04323709711624325</v>
+        <v>0.05414171981207304</v>
       </c>
       <c r="Q9">
-        <v>216.6155568491487</v>
+        <v>254.13983535876</v>
       </c>
       <c r="R9">
-        <v>216.6155568491487</v>
+        <v>2287.25851822884</v>
       </c>
       <c r="S9">
-        <v>0.007536549906911946</v>
+        <v>0.008207517034092619</v>
       </c>
       <c r="T9">
-        <v>0.007536549906911946</v>
+        <v>0.01080394285030106</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.4613481481237</v>
+        <v>15.12099333333333</v>
       </c>
       <c r="H10">
-        <v>13.4613481481237</v>
+        <v>45.36298</v>
       </c>
       <c r="I10">
-        <v>0.1743074907792694</v>
+        <v>0.1837921591632454</v>
       </c>
       <c r="J10">
-        <v>0.1743074907792694</v>
+        <v>0.1995493103618014</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.001144717452</v>
+        <v>31.35339366666667</v>
       </c>
       <c r="N10">
-        <v>30.001144717452</v>
+        <v>94.060181</v>
       </c>
       <c r="O10">
-        <v>0.08061080667211819</v>
+        <v>0.08330612737228353</v>
       </c>
       <c r="P10">
-        <v>0.08061080667211819</v>
+        <v>0.1010006526448602</v>
       </c>
       <c r="Q10">
-        <v>403.8558538838636</v>
+        <v>474.0944566110422</v>
       </c>
       <c r="R10">
-        <v>403.8558538838636</v>
+        <v>4266.85010949938</v>
       </c>
       <c r="S10">
-        <v>0.01405106744070971</v>
+        <v>0.01531101302128033</v>
       </c>
       <c r="T10">
-        <v>0.01405106744070971</v>
+        <v>0.0201546105813737</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.4613481481237</v>
+        <v>15.12099333333333</v>
       </c>
       <c r="H11">
-        <v>13.4613481481237</v>
+        <v>45.36298</v>
       </c>
       <c r="I11">
-        <v>0.1743074907792694</v>
+        <v>0.1837921591632454</v>
       </c>
       <c r="J11">
-        <v>0.1743074907792694</v>
+        <v>0.1995493103618014</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>34.8723698866048</v>
+        <v>35.54054833333333</v>
       </c>
       <c r="N11">
-        <v>34.8723698866048</v>
+        <v>106.621645</v>
       </c>
       <c r="O11">
-        <v>0.09369942025886943</v>
+        <v>0.09443141874256437</v>
       </c>
       <c r="P11">
-        <v>0.09369942025886943</v>
+        <v>0.1144889964762942</v>
       </c>
       <c r="Q11">
-        <v>469.4291117937322</v>
+        <v>537.4083944113444</v>
       </c>
       <c r="R11">
-        <v>469.4291117937322</v>
+        <v>4836.675549702099</v>
       </c>
       <c r="S11">
-        <v>0.01633251083279577</v>
+        <v>0.01735575434354446</v>
       </c>
       <c r="T11">
-        <v>0.01633251083279577</v>
+        <v>0.02284620029085921</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.4613481481237</v>
+        <v>15.12099333333333</v>
       </c>
       <c r="H12">
-        <v>13.4613481481237</v>
+        <v>45.36298</v>
       </c>
       <c r="I12">
-        <v>0.1743074907792694</v>
+        <v>0.1837921591632454</v>
       </c>
       <c r="J12">
-        <v>0.1743074907792694</v>
+        <v>0.1995493103618014</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>93.6516634511801</v>
+        <v>94.85468300000001</v>
       </c>
       <c r="N12">
-        <v>93.6516634511801</v>
+        <v>284.564049</v>
       </c>
       <c r="O12">
-        <v>0.251634936202745</v>
+        <v>0.2520293779954212</v>
       </c>
       <c r="P12">
-        <v>0.251634936202745</v>
+        <v>0.3055613370365933</v>
       </c>
       <c r="Q12">
-        <v>1260.677646367247</v>
+        <v>1434.297029278447</v>
       </c>
       <c r="R12">
-        <v>1260.677646367247</v>
+        <v>12908.67326350602</v>
       </c>
       <c r="S12">
-        <v>0.04386185432190202</v>
+        <v>0.0463210235543482</v>
       </c>
       <c r="T12">
-        <v>0.04386185432190202</v>
+        <v>0.06097455407888216</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.4613481481237</v>
+        <v>15.12099333333333</v>
       </c>
       <c r="H13">
-        <v>13.4613481481237</v>
+        <v>45.36298</v>
       </c>
       <c r="I13">
-        <v>0.1743074907792694</v>
+        <v>0.1837921591632454</v>
       </c>
       <c r="J13">
-        <v>0.1743074907792694</v>
+        <v>0.1995493103618014</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>33.687929125754</v>
+        <v>33.9399115</v>
       </c>
       <c r="N13">
-        <v>33.687929125754</v>
+        <v>67.879823</v>
       </c>
       <c r="O13">
-        <v>0.09051691752149957</v>
+        <v>0.0901785184877445</v>
       </c>
       <c r="P13">
-        <v>0.09051691752149957</v>
+        <v>0.07288850979797275</v>
       </c>
       <c r="Q13">
-        <v>453.4849423510911</v>
+        <v>513.2051755254233</v>
       </c>
       <c r="R13">
-        <v>453.4849423510911</v>
+        <v>3079.23105315254</v>
       </c>
       <c r="S13">
-        <v>0.01577777676624667</v>
+        <v>0.0165741046230052</v>
       </c>
       <c r="T13">
-        <v>0.01577777676624667</v>
+        <v>0.01454485186348487</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.7344657321127</v>
+        <v>15.30100133333333</v>
       </c>
       <c r="H14">
-        <v>14.7344657321127</v>
+        <v>45.903004</v>
       </c>
       <c r="I14">
-        <v>0.1907927587546779</v>
+        <v>0.1859801145612367</v>
       </c>
       <c r="J14">
-        <v>0.1907927587546779</v>
+        <v>0.2019248469067731</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>163.867963021638</v>
+        <v>163.8679735</v>
       </c>
       <c r="N14">
-        <v>163.867963021638</v>
+        <v>327.735947</v>
       </c>
       <c r="O14">
-        <v>0.4403008222285246</v>
+        <v>0.4353980439170849</v>
       </c>
       <c r="P14">
-        <v>0.4403008222285246</v>
+        <v>0.3519187842322066</v>
       </c>
       <c r="Q14">
-        <v>2414.506885733436</v>
+        <v>2507.344081014131</v>
       </c>
       <c r="R14">
-        <v>2414.506885733436</v>
+        <v>15044.06448608479</v>
       </c>
       <c r="S14">
-        <v>0.08400620855493322</v>
+        <v>0.08097537808743781</v>
       </c>
       <c r="T14">
-        <v>0.08400620855493322</v>
+        <v>0.07106114662970606</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.7344657321127</v>
+        <v>15.30100133333333</v>
       </c>
       <c r="H15">
-        <v>14.7344657321127</v>
+        <v>45.903004</v>
       </c>
       <c r="I15">
-        <v>0.1907927587546779</v>
+        <v>0.1859801145612367</v>
       </c>
       <c r="J15">
-        <v>0.1907927587546779</v>
+        <v>0.2019248469067731</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>16.0916688629988</v>
+        <v>16.807086</v>
       </c>
       <c r="N15">
-        <v>16.0916688629988</v>
+        <v>50.42125799999999</v>
       </c>
       <c r="O15">
-        <v>0.04323709711624325</v>
+        <v>0.04465651348490144</v>
       </c>
       <c r="P15">
-        <v>0.04323709711624325</v>
+        <v>0.05414171981207304</v>
       </c>
       <c r="Q15">
-        <v>237.1021434343608</v>
+        <v>257.165245295448</v>
       </c>
       <c r="R15">
-        <v>237.1021434343608</v>
+        <v>2314.487207659031</v>
       </c>
       <c r="S15">
-        <v>0.008249325039351978</v>
+        <v>0.00830522349382738</v>
       </c>
       <c r="T15">
-        <v>0.008249325039351978</v>
+        <v>0.01093255848432225</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.7344657321127</v>
+        <v>15.30100133333333</v>
       </c>
       <c r="H16">
-        <v>14.7344657321127</v>
+        <v>45.903004</v>
       </c>
       <c r="I16">
-        <v>0.1907927587546779</v>
+        <v>0.1859801145612367</v>
       </c>
       <c r="J16">
-        <v>0.1907927587546779</v>
+        <v>0.2019248469067731</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>30.001144717452</v>
+        <v>31.35339366666667</v>
       </c>
       <c r="N16">
-        <v>30.001144717452</v>
+        <v>94.060181</v>
       </c>
       <c r="O16">
-        <v>0.08061080667211819</v>
+        <v>0.08330612737228353</v>
       </c>
       <c r="P16">
-        <v>0.08061080667211819</v>
+        <v>0.1010006526448602</v>
       </c>
       <c r="Q16">
-        <v>442.0508387634504</v>
+        <v>479.7383182981915</v>
       </c>
       <c r="R16">
-        <v>442.0508387634504</v>
+        <v>4317.644864683723</v>
       </c>
       <c r="S16">
-        <v>0.01537995819041343</v>
+        <v>0.01549328311235027</v>
       </c>
       <c r="T16">
-        <v>0.01537995819041343</v>
+        <v>0.02039454132279756</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.7344657321127</v>
+        <v>15.30100133333333</v>
       </c>
       <c r="H17">
-        <v>14.7344657321127</v>
+        <v>45.903004</v>
       </c>
       <c r="I17">
-        <v>0.1907927587546779</v>
+        <v>0.1859801145612367</v>
       </c>
       <c r="J17">
-        <v>0.1907927587546779</v>
+        <v>0.2019248469067731</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>34.8723698866048</v>
+        <v>35.54054833333333</v>
       </c>
       <c r="N17">
-        <v>34.8723698866048</v>
+        <v>106.621645</v>
       </c>
       <c r="O17">
-        <v>0.09369942025886943</v>
+        <v>0.09443141874256437</v>
       </c>
       <c r="P17">
-        <v>0.09369942025886943</v>
+        <v>0.1144889964762942</v>
       </c>
       <c r="Q17">
-        <v>513.8257390917373</v>
+        <v>543.8059774357309</v>
       </c>
       <c r="R17">
-        <v>513.8257390917373</v>
+        <v>4894.253796921579</v>
       </c>
       <c r="S17">
-        <v>0.01787717088490366</v>
+        <v>0.01756236607592224</v>
       </c>
       <c r="T17">
-        <v>0.01787717088490366</v>
+        <v>0.02311817308598579</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>14.7344657321127</v>
+        <v>15.30100133333333</v>
       </c>
       <c r="H18">
-        <v>14.7344657321127</v>
+        <v>45.903004</v>
       </c>
       <c r="I18">
-        <v>0.1907927587546779</v>
+        <v>0.1859801145612367</v>
       </c>
       <c r="J18">
-        <v>0.1907927587546779</v>
+        <v>0.2019248469067731</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>93.6516634511801</v>
+        <v>94.85468300000001</v>
       </c>
       <c r="N18">
-        <v>93.6516634511801</v>
+        <v>284.564049</v>
       </c>
       <c r="O18">
-        <v>0.251634936202745</v>
+        <v>0.2520293779954212</v>
       </c>
       <c r="P18">
-        <v>0.251634936202745</v>
+        <v>0.3055613370365933</v>
       </c>
       <c r="Q18">
-        <v>1379.907225876764</v>
+        <v>1451.371631055911</v>
       </c>
       <c r="R18">
-        <v>1379.907225876764</v>
+        <v>13062.3446795032</v>
       </c>
       <c r="S18">
-        <v>0.04801012367717911</v>
+        <v>0.04687245259238567</v>
       </c>
       <c r="T18">
-        <v>0.04801012367717911</v>
+        <v>0.06170042620174301</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>14.7344657321127</v>
+        <v>15.30100133333333</v>
       </c>
       <c r="H19">
-        <v>14.7344657321127</v>
+        <v>45.903004</v>
       </c>
       <c r="I19">
-        <v>0.1907927587546779</v>
+        <v>0.1859801145612367</v>
       </c>
       <c r="J19">
-        <v>0.1907927587546779</v>
+        <v>0.2019248469067731</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>33.687929125754</v>
+        <v>33.9399115</v>
       </c>
       <c r="N19">
-        <v>33.687929125754</v>
+        <v>67.879823</v>
       </c>
       <c r="O19">
-        <v>0.09051691752149957</v>
+        <v>0.0901785184877445</v>
       </c>
       <c r="P19">
-        <v>0.09051691752149957</v>
+        <v>0.07288850979797275</v>
       </c>
       <c r="Q19">
-        <v>496.3736372892637</v>
+        <v>519.3146311147153</v>
       </c>
       <c r="R19">
-        <v>496.3736372892637</v>
+        <v>3115.887786688292</v>
       </c>
       <c r="S19">
-        <v>0.01726997240789655</v>
+        <v>0.01677141119931332</v>
       </c>
       <c r="T19">
-        <v>0.01726997240789655</v>
+        <v>0.01471800118221848</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>23.2034646576167</v>
+        <v>24.037621</v>
       </c>
       <c r="H20">
-        <v>23.2034646576167</v>
+        <v>72.112863</v>
       </c>
       <c r="I20">
-        <v>0.300455619849515</v>
+        <v>0.2921716958236277</v>
       </c>
       <c r="J20">
-        <v>0.300455619849515</v>
+        <v>0.3172206076378816</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>163.867963021638</v>
+        <v>163.8679735</v>
       </c>
       <c r="N20">
-        <v>163.867963021638</v>
+        <v>327.735947</v>
       </c>
       <c r="O20">
-        <v>0.4403008222285246</v>
+        <v>0.4353980439170849</v>
       </c>
       <c r="P20">
-        <v>0.4403008222285246</v>
+        <v>0.3519187842322066</v>
       </c>
       <c r="Q20">
-        <v>3802.304488488217</v>
+        <v>3938.996241031044</v>
       </c>
       <c r="R20">
-        <v>3802.304488488217</v>
+        <v>23633.97744618626</v>
       </c>
       <c r="S20">
-        <v>0.1322908564629224</v>
+        <v>0.127210984849545</v>
       </c>
       <c r="T20">
-        <v>0.1322908564629224</v>
+        <v>0.1116358905733251</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>23.2034646576167</v>
+        <v>24.037621</v>
       </c>
       <c r="H21">
-        <v>23.2034646576167</v>
+        <v>72.112863</v>
       </c>
       <c r="I21">
-        <v>0.300455619849515</v>
+        <v>0.2921716958236277</v>
       </c>
       <c r="J21">
-        <v>0.300455619849515</v>
+        <v>0.3172206076378816</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>16.0916688629988</v>
+        <v>16.807086</v>
       </c>
       <c r="N21">
-        <v>16.0916688629988</v>
+        <v>50.42125799999999</v>
       </c>
       <c r="O21">
-        <v>0.04323709711624325</v>
+        <v>0.04465651348490144</v>
       </c>
       <c r="P21">
-        <v>0.04323709711624325</v>
+        <v>0.05414171981207304</v>
       </c>
       <c r="Q21">
-        <v>373.3824697446638</v>
+        <v>404.002363382406</v>
       </c>
       <c r="R21">
-        <v>373.3824697446638</v>
+        <v>3636.021270441654</v>
       </c>
       <c r="S21">
-        <v>0.01299082881455454</v>
+        <v>0.01304736927445435</v>
       </c>
       <c r="T21">
-        <v>0.01299082881455454</v>
+        <v>0.01717486925734574</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>23.2034646576167</v>
+        <v>24.037621</v>
       </c>
       <c r="H22">
-        <v>23.2034646576167</v>
+        <v>72.112863</v>
       </c>
       <c r="I22">
-        <v>0.300455619849515</v>
+        <v>0.2921716958236277</v>
       </c>
       <c r="J22">
-        <v>0.300455619849515</v>
+        <v>0.3172206076378816</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>30.001144717452</v>
+        <v>31.35339366666667</v>
       </c>
       <c r="N22">
-        <v>30.001144717452</v>
+        <v>94.060181</v>
       </c>
       <c r="O22">
-        <v>0.08061080667211819</v>
+        <v>0.08330612737228353</v>
       </c>
       <c r="P22">
-        <v>0.08061080667211819</v>
+        <v>0.1010006526448602</v>
       </c>
       <c r="Q22">
-        <v>696.1305011394414</v>
+        <v>753.6609940231336</v>
       </c>
       <c r="R22">
-        <v>696.1305011394414</v>
+        <v>6782.948946208204</v>
       </c>
       <c r="S22">
-        <v>0.02421996988524069</v>
+        <v>0.02433969250685921</v>
       </c>
       <c r="T22">
-        <v>0.02421996988524069</v>
+        <v>0.03203948840382515</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>23.2034646576167</v>
+        <v>24.037621</v>
       </c>
       <c r="H23">
-        <v>23.2034646576167</v>
+        <v>72.112863</v>
       </c>
       <c r="I23">
-        <v>0.300455619849515</v>
+        <v>0.2921716958236277</v>
       </c>
       <c r="J23">
-        <v>0.300455619849515</v>
+        <v>0.3172206076378816</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>34.8723698866048</v>
+        <v>35.54054833333333</v>
       </c>
       <c r="N23">
-        <v>34.8723698866048</v>
+        <v>106.621645</v>
       </c>
       <c r="O23">
-        <v>0.09369942025886943</v>
+        <v>0.09443141874256437</v>
       </c>
       <c r="P23">
-        <v>0.09369942025886943</v>
+        <v>0.1144889964762942</v>
       </c>
       <c r="Q23">
-        <v>809.1598021911714</v>
+        <v>854.3102309688483</v>
       </c>
       <c r="R23">
-        <v>809.1598021911714</v>
+        <v>7688.792078719634</v>
       </c>
       <c r="S23">
-        <v>0.02815251739341881</v>
+        <v>0.02759018775304614</v>
       </c>
       <c r="T23">
-        <v>0.02815251739341881</v>
+        <v>0.03631826903006131</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>23.2034646576167</v>
+        <v>24.037621</v>
       </c>
       <c r="H24">
-        <v>23.2034646576167</v>
+        <v>72.112863</v>
       </c>
       <c r="I24">
-        <v>0.300455619849515</v>
+        <v>0.2921716958236277</v>
       </c>
       <c r="J24">
-        <v>0.300455619849515</v>
+        <v>0.3172206076378816</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>93.6516634511801</v>
+        <v>94.85468300000001</v>
       </c>
       <c r="N24">
-        <v>93.6516634511801</v>
+        <v>284.564049</v>
       </c>
       <c r="O24">
-        <v>0.251634936202745</v>
+        <v>0.2520293779954212</v>
       </c>
       <c r="P24">
-        <v>0.251634936202745</v>
+        <v>0.3055613370365933</v>
       </c>
       <c r="Q24">
-        <v>2173.043063016471</v>
+        <v>2280.080920029143</v>
       </c>
       <c r="R24">
-        <v>2173.043063016471</v>
+        <v>20520.72828026229</v>
       </c>
       <c r="S24">
-        <v>0.07560513073258891</v>
+        <v>0.07363585076629631</v>
       </c>
       <c r="T24">
-        <v>0.07560513073258891</v>
+        <v>0.09693035300539164</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>23.2034646576167</v>
+        <v>24.037621</v>
       </c>
       <c r="H25">
-        <v>23.2034646576167</v>
+        <v>72.112863</v>
       </c>
       <c r="I25">
-        <v>0.300455619849515</v>
+        <v>0.2921716958236277</v>
       </c>
       <c r="J25">
-        <v>0.300455619849515</v>
+        <v>0.3172206076378816</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>33.687929125754</v>
+        <v>33.9399115</v>
       </c>
       <c r="N25">
-        <v>33.687929125754</v>
+        <v>67.879823</v>
       </c>
       <c r="O25">
-        <v>0.09051691752149957</v>
+        <v>0.0901785184877445</v>
       </c>
       <c r="P25">
-        <v>0.09051691752149957</v>
+        <v>0.07288850979797275</v>
       </c>
       <c r="Q25">
-        <v>781.6766728577293</v>
+        <v>815.8347294105416</v>
       </c>
       <c r="R25">
-        <v>781.6766728577293</v>
+        <v>4895.008376463249</v>
       </c>
       <c r="S25">
-        <v>0.02719631656078958</v>
+        <v>0.02634761067342668</v>
       </c>
       <c r="T25">
-        <v>0.02719631656078958</v>
+        <v>0.0231217373679326</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>7.76119141246142</v>
+        <v>8.323066666666668</v>
       </c>
       <c r="H26">
-        <v>7.76119141246142</v>
+        <v>24.9692</v>
       </c>
       <c r="I26">
-        <v>0.1004976459770359</v>
+        <v>0.101164940675831</v>
       </c>
       <c r="J26">
-        <v>0.1004976459770359</v>
+        <v>0.1098381684864154</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>163.867963021638</v>
+        <v>163.8679735</v>
       </c>
       <c r="N26">
-        <v>163.867963021638</v>
+        <v>327.735947</v>
       </c>
       <c r="O26">
-        <v>0.4403008222285246</v>
+        <v>0.4353980439170849</v>
       </c>
       <c r="P26">
-        <v>0.4403008222285246</v>
+        <v>0.3519187842322066</v>
       </c>
       <c r="Q26">
-        <v>1271.810627381082</v>
+        <v>1363.884067972067</v>
       </c>
       <c r="R26">
-        <v>1271.810627381082</v>
+        <v>8183.3044078324</v>
       </c>
       <c r="S26">
-        <v>0.04424919615572009</v>
+        <v>0.04404701728324473</v>
       </c>
       <c r="T26">
-        <v>0.04424919615572009</v>
+        <v>0.03865411471603158</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>7.76119141246142</v>
+        <v>8.323066666666668</v>
       </c>
       <c r="H27">
-        <v>7.76119141246142</v>
+        <v>24.9692</v>
       </c>
       <c r="I27">
-        <v>0.1004976459770359</v>
+        <v>0.101164940675831</v>
       </c>
       <c r="J27">
-        <v>0.1004976459770359</v>
+        <v>0.1098381684864154</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>16.0916688629988</v>
+        <v>16.807086</v>
       </c>
       <c r="N27">
-        <v>16.0916688629988</v>
+        <v>50.42125799999999</v>
       </c>
       <c r="O27">
-        <v>0.04323709711624325</v>
+        <v>0.04465651348490144</v>
       </c>
       <c r="P27">
-        <v>0.04323709711624325</v>
+        <v>0.05414171981207304</v>
       </c>
       <c r="Q27">
-        <v>124.8905221916791</v>
+        <v>139.8864972504</v>
       </c>
       <c r="R27">
-        <v>124.8905221916791</v>
+        <v>1258.9784752536</v>
       </c>
       <c r="S27">
-        <v>0.004345226479062935</v>
+        <v>0.0045176735374895</v>
       </c>
       <c r="T27">
-        <v>0.004345226479062935</v>
+        <v>0.005946827342862774</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>7.76119141246142</v>
+        <v>8.323066666666668</v>
       </c>
       <c r="H28">
-        <v>7.76119141246142</v>
+        <v>24.9692</v>
       </c>
       <c r="I28">
-        <v>0.1004976459770359</v>
+        <v>0.101164940675831</v>
       </c>
       <c r="J28">
-        <v>0.1004976459770359</v>
+        <v>0.1098381684864154</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>30.001144717452</v>
+        <v>31.35339366666667</v>
       </c>
       <c r="N28">
-        <v>30.001144717452</v>
+        <v>94.060181</v>
       </c>
       <c r="O28">
-        <v>0.08061080667211819</v>
+        <v>0.08330612737228353</v>
       </c>
       <c r="P28">
-        <v>0.08061080667211819</v>
+        <v>0.1010006526448602</v>
       </c>
       <c r="Q28">
-        <v>232.8446267451008</v>
+        <v>260.9563857139111</v>
       </c>
       <c r="R28">
-        <v>232.8446267451008</v>
+        <v>2348.6074714252</v>
       </c>
       <c r="S28">
-        <v>0.00810119631085782</v>
+        <v>0.008427659433550281</v>
       </c>
       <c r="T28">
-        <v>0.00810119631085782</v>
+        <v>0.01109372670244407</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>7.76119141246142</v>
+        <v>8.323066666666668</v>
       </c>
       <c r="H29">
-        <v>7.76119141246142</v>
+        <v>24.9692</v>
       </c>
       <c r="I29">
-        <v>0.1004976459770359</v>
+        <v>0.101164940675831</v>
       </c>
       <c r="J29">
-        <v>0.1004976459770359</v>
+        <v>0.1098381684864154</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>34.8723698866048</v>
+        <v>35.54054833333333</v>
       </c>
       <c r="N29">
-        <v>34.8723698866048</v>
+        <v>106.621645</v>
       </c>
       <c r="O29">
-        <v>0.09369942025886943</v>
+        <v>0.09443141874256437</v>
       </c>
       <c r="P29">
-        <v>0.09369942025886943</v>
+        <v>0.1144889964762942</v>
       </c>
       <c r="Q29">
-        <v>270.6511376960954</v>
+        <v>295.8063531482222</v>
       </c>
       <c r="R29">
-        <v>270.6511376960954</v>
+        <v>2662.257178334</v>
       </c>
       <c r="S29">
-        <v>0.009416571165429368</v>
+        <v>0.009553148875026077</v>
       </c>
       <c r="T29">
-        <v>0.009416571165429368</v>
+        <v>0.01257526168480382</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>7.76119141246142</v>
+        <v>8.323066666666668</v>
       </c>
       <c r="H30">
-        <v>7.76119141246142</v>
+        <v>24.9692</v>
       </c>
       <c r="I30">
-        <v>0.1004976459770359</v>
+        <v>0.101164940675831</v>
       </c>
       <c r="J30">
-        <v>0.1004976459770359</v>
+        <v>0.1098381684864154</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>93.6516634511801</v>
+        <v>94.85468300000001</v>
       </c>
       <c r="N30">
-        <v>93.6516634511801</v>
+        <v>284.564049</v>
       </c>
       <c r="O30">
-        <v>0.251634936202745</v>
+        <v>0.2520293779954212</v>
       </c>
       <c r="P30">
-        <v>0.251634936202745</v>
+        <v>0.3055613370365933</v>
       </c>
       <c r="Q30">
-        <v>726.848486140026</v>
+        <v>789.4818502545335</v>
       </c>
       <c r="R30">
-        <v>726.848486140026</v>
+        <v>7105.336652290801</v>
       </c>
       <c r="S30">
-        <v>0.02528871873395749</v>
+        <v>0.02549653707347337</v>
       </c>
       <c r="T30">
-        <v>0.02528871873395749</v>
+        <v>0.0335622976203597</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>7.76119141246142</v>
+        <v>8.323066666666668</v>
       </c>
       <c r="H31">
-        <v>7.76119141246142</v>
+        <v>24.9692</v>
       </c>
       <c r="I31">
-        <v>0.1004976459770359</v>
+        <v>0.101164940675831</v>
       </c>
       <c r="J31">
-        <v>0.1004976459770359</v>
+        <v>0.1098381684864154</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>33.687929125754</v>
+        <v>33.9399115</v>
       </c>
       <c r="N31">
-        <v>33.687929125754</v>
+        <v>67.879823</v>
       </c>
       <c r="O31">
-        <v>0.09051691752149957</v>
+        <v>0.0901785184877445</v>
       </c>
       <c r="P31">
-        <v>0.09051691752149957</v>
+        <v>0.07288850979797275</v>
       </c>
       <c r="Q31">
-        <v>261.4584662344109</v>
+        <v>282.4841460752667</v>
       </c>
       <c r="R31">
-        <v>261.4584662344109</v>
+        <v>1694.9048764516</v>
       </c>
       <c r="S31">
-        <v>0.009096737132008224</v>
+        <v>0.009122904473046999</v>
       </c>
       <c r="T31">
-        <v>0.009096737132008224</v>
+        <v>0.008005940419913472</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>7.74269475726636</v>
+        <v>7.8209415</v>
       </c>
       <c r="H32">
-        <v>7.74269475726636</v>
+        <v>15.641883</v>
       </c>
       <c r="I32">
-        <v>0.1002581376068948</v>
+        <v>0.09506172599161901</v>
       </c>
       <c r="J32">
-        <v>0.1002581376068948</v>
+        <v>0.06880780242854384</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>163.867963021638</v>
+        <v>163.8679735</v>
       </c>
       <c r="N32">
-        <v>163.867963021638</v>
+        <v>327.735947</v>
       </c>
       <c r="O32">
-        <v>0.4403008222285246</v>
+        <v>0.4353980439170849</v>
       </c>
       <c r="P32">
-        <v>0.4403008222285246</v>
+        <v>0.3519187842322066</v>
       </c>
       <c r="Q32">
-        <v>1268.779618171554</v>
+        <v>1281.60183446705</v>
       </c>
       <c r="R32">
-        <v>1268.779618171554</v>
+        <v>5126.407337868201</v>
       </c>
       <c r="S32">
-        <v>0.04414374042341632</v>
+        <v>0.04138968954813282</v>
       </c>
       <c r="T32">
-        <v>0.04414374042341632</v>
+        <v>0.02421475817634302</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>7.74269475726636</v>
+        <v>7.8209415</v>
       </c>
       <c r="H33">
-        <v>7.74269475726636</v>
+        <v>15.641883</v>
       </c>
       <c r="I33">
-        <v>0.1002581376068948</v>
+        <v>0.09506172599161901</v>
       </c>
       <c r="J33">
-        <v>0.1002581376068948</v>
+        <v>0.06880780242854384</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>16.0916688629988</v>
+        <v>16.807086</v>
       </c>
       <c r="N33">
-        <v>16.0916688629988</v>
+        <v>50.42125799999999</v>
       </c>
       <c r="O33">
-        <v>0.04323709711624325</v>
+        <v>0.04465651348490144</v>
       </c>
       <c r="P33">
-        <v>0.04323709711624325</v>
+        <v>0.05414171981207304</v>
       </c>
       <c r="Q33">
-        <v>124.5928801412071</v>
+        <v>131.447236391469</v>
       </c>
       <c r="R33">
-        <v>124.5928801412071</v>
+        <v>788.6834183488139</v>
       </c>
       <c r="S33">
-        <v>0.004334870832402988</v>
+        <v>0.00424512524864274</v>
       </c>
       <c r="T33">
-        <v>0.004334870832402988</v>
+        <v>0.003725372759970699</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>7.74269475726636</v>
+        <v>7.8209415</v>
       </c>
       <c r="H34">
-        <v>7.74269475726636</v>
+        <v>15.641883</v>
       </c>
       <c r="I34">
-        <v>0.1002581376068948</v>
+        <v>0.09506172599161901</v>
       </c>
       <c r="J34">
-        <v>0.1002581376068948</v>
+        <v>0.06880780242854384</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>30.001144717452</v>
+        <v>31.35339366666667</v>
       </c>
       <c r="N34">
-        <v>30.001144717452</v>
+        <v>94.060181</v>
       </c>
       <c r="O34">
-        <v>0.08061080667211819</v>
+        <v>0.08330612737228353</v>
       </c>
       <c r="P34">
-        <v>0.08061080667211819</v>
+        <v>0.1010006526448602</v>
       </c>
       <c r="Q34">
-        <v>232.2897059158049</v>
+        <v>245.2130576934705</v>
       </c>
       <c r="R34">
-        <v>232.2897059158049</v>
+        <v>1471.278346160823</v>
       </c>
       <c r="S34">
-        <v>0.008081889347936015</v>
+        <v>0.00791922425368693</v>
       </c>
       <c r="T34">
-        <v>0.008081889347936015</v>
+        <v>0.006949632952341521</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>7.74269475726636</v>
+        <v>7.8209415</v>
       </c>
       <c r="H35">
-        <v>7.74269475726636</v>
+        <v>15.641883</v>
       </c>
       <c r="I35">
-        <v>0.1002581376068948</v>
+        <v>0.09506172599161901</v>
       </c>
       <c r="J35">
-        <v>0.1002581376068948</v>
+        <v>0.06880780242854384</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>34.8723698866048</v>
+        <v>35.54054833333333</v>
       </c>
       <c r="N35">
-        <v>34.8723698866048</v>
+        <v>106.621645</v>
       </c>
       <c r="O35">
-        <v>0.09369942025886943</v>
+        <v>0.09443141874256437</v>
       </c>
       <c r="P35">
-        <v>0.09369942025886943</v>
+        <v>0.1144889964762942</v>
       </c>
       <c r="Q35">
-        <v>270.0061154944683</v>
+        <v>277.9605493929225</v>
       </c>
       <c r="R35">
-        <v>270.0061154944683</v>
+        <v>1667.763296357535</v>
       </c>
       <c r="S35">
-        <v>0.009394129369999994</v>
+        <v>0.008976813653505489</v>
       </c>
       <c r="T35">
-        <v>0.009394129369999994</v>
+        <v>0.0078777362497831</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>7.74269475726636</v>
+        <v>7.8209415</v>
       </c>
       <c r="H36">
-        <v>7.74269475726636</v>
+        <v>15.641883</v>
       </c>
       <c r="I36">
-        <v>0.1002581376068948</v>
+        <v>0.09506172599161901</v>
       </c>
       <c r="J36">
-        <v>0.1002581376068948</v>
+        <v>0.06880780242854384</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>93.6516634511801</v>
+        <v>94.85468300000001</v>
       </c>
       <c r="N36">
-        <v>93.6516634511801</v>
+        <v>284.564049</v>
       </c>
       <c r="O36">
-        <v>0.251634936202745</v>
+        <v>0.2520293779954212</v>
       </c>
       <c r="P36">
-        <v>0.251634936202745</v>
+        <v>0.3055613370365933</v>
       </c>
       <c r="Q36">
-        <v>725.1162436127257</v>
+        <v>741.8529267440446</v>
       </c>
       <c r="R36">
-        <v>725.1162436127257</v>
+        <v>4451.117560464268</v>
       </c>
       <c r="S36">
-        <v>0.02522845006051699</v>
+        <v>0.02395834767283891</v>
       </c>
       <c r="T36">
-        <v>0.02522845006051699</v>
+        <v>0.02102500410861561</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>7.74269475726636</v>
+        <v>7.8209415</v>
       </c>
       <c r="H37">
-        <v>7.74269475726636</v>
+        <v>15.641883</v>
       </c>
       <c r="I37">
-        <v>0.1002581376068948</v>
+        <v>0.09506172599161901</v>
       </c>
       <c r="J37">
-        <v>0.1002581376068948</v>
+        <v>0.06880780242854384</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>33.687929125754</v>
+        <v>33.9399115</v>
       </c>
       <c r="N37">
-        <v>33.687929125754</v>
+        <v>67.879823</v>
       </c>
       <c r="O37">
-        <v>0.09051691752149957</v>
+        <v>0.0901785184877445</v>
       </c>
       <c r="P37">
-        <v>0.09051691752149957</v>
+        <v>0.07288850979797275</v>
       </c>
       <c r="Q37">
-        <v>260.8353522251362</v>
+        <v>265.4420623566772</v>
       </c>
       <c r="R37">
-        <v>260.8353522251362</v>
+        <v>1061.768249426709</v>
       </c>
       <c r="S37">
-        <v>0.009075057572622447</v>
+        <v>0.008572525614812117</v>
       </c>
       <c r="T37">
-        <v>0.009075057572622447</v>
+        <v>0.00501529818148989</v>
       </c>
     </row>
   </sheetData>
